--- a/ASP.NET CORE/HRMNS/Kế hoạch thực hiện công việc EHS 2023.xlsx
+++ b/ASP.NET CORE/HRMNS/Kế hoạch thực hiện công việc EHS 2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Source\NET CORE\ASP.NET CORE\HRMNS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1362,10 +1362,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="[$-14809]d/m/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-14809]d/m/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2242,7 +2242,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="343">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2394,10 +2394,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2411,7 +2411,7 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2488,17 +2488,17 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2509,7 +2509,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2566,52 +2566,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2674,19 +2674,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2711,10 +2711,10 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2732,7 +2732,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2777,7 +2777,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2789,31 +2789,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2918,24 +2918,24 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2960,6 +2960,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2987,40 +3023,166 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3047,12 +3209,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3080,167 +3236,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4495,40 +4495,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33" customHeight="1">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="239" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="235"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="239"/>
+      <c r="L1" s="239"/>
+      <c r="M1" s="239"/>
+      <c r="N1" s="239"/>
     </row>
     <row r="2" spans="1:15" ht="39.75" customHeight="1">
-      <c r="A2" s="236" t="s">
+      <c r="A2" s="240" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="236"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="240"/>
+      <c r="H2" s="240"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="240"/>
+      <c r="K2" s="240"/>
+      <c r="L2" s="240"/>
+      <c r="M2" s="240"/>
+      <c r="N2" s="240"/>
     </row>
     <row r="3" spans="1:15" ht="71.25">
       <c r="A3" s="134" t="s">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="N4" s="155">
         <f ca="1">IF(M24&lt;TODAY(),M4-TODAY(), DATEDIF(TODAY(),M4,"d"))</f>
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="O4" s="89"/>
     </row>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="N5" s="155">
         <f ca="1">IF(M25&lt;TODAY(),M5-TODAY(), DATEDIF(TODAY(),M5,"d"))</f>
-        <v>248</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18.75" hidden="1">
@@ -4698,7 +4698,7 @@
       <c r="M6" s="157"/>
       <c r="N6" s="155" t="e">
         <f t="shared" ref="N6:N16" ca="1" si="0">IF(L26&lt;TODAY(),L6-TODAY(), DATEDIF(TODAY(),L6,"d"))</f>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.75" hidden="1">
@@ -4735,7 +4735,7 @@
       <c r="M7" s="157"/>
       <c r="N7" s="155" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.75" hidden="1">
@@ -4772,7 +4772,7 @@
       <c r="M8" s="157"/>
       <c r="N8" s="155" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18.75" hidden="1">
@@ -4809,7 +4809,7 @@
       <c r="M9" s="157"/>
       <c r="N9" s="155" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.75" hidden="1">
@@ -4846,7 +4846,7 @@
       <c r="M10" s="157"/>
       <c r="N10" s="155" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.75" hidden="1">
@@ -4883,7 +4883,7 @@
       <c r="M11" s="157"/>
       <c r="N11" s="155" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18.75" hidden="1">
@@ -4920,7 +4920,7 @@
       <c r="M12" s="157"/>
       <c r="N12" s="155" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18.75" hidden="1">
@@ -4957,7 +4957,7 @@
       <c r="M13" s="157"/>
       <c r="N13" s="155" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18.75" hidden="1">
@@ -4992,9 +4992,9 @@
         <v>186</v>
       </c>
       <c r="M14" s="157"/>
-      <c r="N14" s="155">
+      <c r="N14" s="155" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>-117</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18.75" hidden="1">
@@ -5029,9 +5029,9 @@
         <v>186</v>
       </c>
       <c r="M15" s="157"/>
-      <c r="N15" s="155">
+      <c r="N15" s="155" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>-117</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="24.75" hidden="1" customHeight="1">
@@ -5063,7 +5063,7 @@
       <c r="M16" s="160"/>
       <c r="N16" s="155">
         <f t="shared" ca="1" si="0"/>
-        <v>-118</v>
+        <v>-191</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.75">
@@ -5179,7 +5179,7 @@
       <c r="M19" s="161"/>
       <c r="N19" s="155">
         <f t="shared" ref="N19:N33" ca="1" si="2">IF(L37&lt;TODAY(),L19-TODAY(), DATEDIF(TODAY(),L19,"d"))</f>
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="O19" s="162"/>
     </row>
@@ -5220,7 +5220,7 @@
       <c r="M20" s="161"/>
       <c r="N20" s="155">
         <f t="shared" ca="1" si="2"/>
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="O20" s="89"/>
     </row>
@@ -5261,7 +5261,7 @@
       <c r="M21" s="161"/>
       <c r="N21" s="155">
         <f t="shared" ca="1" si="2"/>
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="O21" s="89"/>
     </row>
@@ -5300,7 +5300,7 @@
       <c r="M22" s="161"/>
       <c r="N22" s="155">
         <f t="shared" ca="1" si="2"/>
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="O22" s="89"/>
     </row>
@@ -5339,7 +5339,7 @@
       <c r="M23" s="161"/>
       <c r="N23" s="155">
         <f t="shared" ca="1" si="2"/>
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="O23" s="89"/>
     </row>
@@ -5378,7 +5378,7 @@
       <c r="M24" s="161"/>
       <c r="N24" s="155">
         <f t="shared" ca="1" si="2"/>
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="O24" s="89"/>
     </row>
@@ -5417,7 +5417,7 @@
       <c r="M25" s="161"/>
       <c r="N25" s="155">
         <f t="shared" ca="1" si="2"/>
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="O25" s="89"/>
     </row>
@@ -5456,7 +5456,7 @@
       <c r="M26" s="161"/>
       <c r="N26" s="155">
         <f t="shared" ca="1" si="2"/>
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="O26" s="89"/>
     </row>
@@ -5495,7 +5495,7 @@
       <c r="M27" s="161"/>
       <c r="N27" s="155">
         <f t="shared" ca="1" si="2"/>
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="O27" s="89"/>
     </row>
@@ -5532,7 +5532,7 @@
       <c r="M28" s="161"/>
       <c r="N28" s="155">
         <f t="shared" ca="1" si="2"/>
-        <v>291</v>
+        <v>218</v>
       </c>
       <c r="O28" s="89"/>
     </row>
@@ -5569,7 +5569,7 @@
       <c r="M29" s="161"/>
       <c r="N29" s="155">
         <f t="shared" ca="1" si="2"/>
-        <v>292</v>
+        <v>219</v>
       </c>
       <c r="O29" s="89"/>
     </row>
@@ -5606,7 +5606,7 @@
       <c r="M30" s="161"/>
       <c r="N30" s="155">
         <f t="shared" ca="1" si="2"/>
-        <v>230</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="30" hidden="1">
@@ -5642,7 +5642,7 @@
       <c r="M31" s="160"/>
       <c r="N31" s="155">
         <f t="shared" ca="1" si="2"/>
-        <v>510</v>
+        <v>437</v>
       </c>
       <c r="O31" s="89"/>
     </row>
@@ -5679,7 +5679,7 @@
       <c r="M32" s="160"/>
       <c r="N32" s="155">
         <f t="shared" ca="1" si="2"/>
-        <v>510</v>
+        <v>437</v>
       </c>
       <c r="O32" s="89"/>
     </row>
@@ -5716,7 +5716,7 @@
       <c r="M33" s="160"/>
       <c r="N33" s="155">
         <f t="shared" ca="1" si="2"/>
-        <v>510</v>
+        <v>437</v>
       </c>
       <c r="O33" s="89"/>
     </row>
@@ -5760,7 +5760,7 @@
       </c>
       <c r="N34" s="155">
         <f ca="1">IF(M52&lt;TODAY(),M34-TODAY(), DATEDIF(TODAY(),M34,"d"))</f>
-        <v>301</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="27" customFormat="1" ht="33">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="N35" s="155">
         <f ca="1">IF(M53&lt;TODAY(),M35-TODAY(), DATEDIF(TODAY(),M35,"d"))</f>
-        <v>301</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="47.25">
@@ -5834,7 +5834,7 @@
       </c>
       <c r="N36" s="155">
         <f ca="1">IF(M54&lt;TODAY(),M36-TODAY(), DATEDIF(TODAY(),M36,"d"))</f>
-        <v>650</v>
+        <v>577</v>
       </c>
       <c r="O36" s="95"/>
     </row>
@@ -5845,7 +5845,7 @@
       <c r="B37" s="75" t="s">
         <v>217</v>
       </c>
-      <c r="C37" s="238" t="s">
+      <c r="C37" s="236" t="s">
         <v>179</v>
       </c>
       <c r="D37" s="139"/>
@@ -5872,17 +5872,17 @@
       </c>
       <c r="N37" s="155">
         <f ca="1">IF(M57&lt;TODAY(),M37-TODAY(), DATEDIF(TODAY(),M37,"d"))</f>
-        <v>247</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="27" customFormat="1" ht="18.75">
       <c r="A38" s="210">
         <v>25</v>
       </c>
-      <c r="B38" s="237" t="s">
+      <c r="B38" s="235" t="s">
         <v>218</v>
       </c>
-      <c r="C38" s="239"/>
+      <c r="C38" s="237"/>
       <c r="D38" s="96" t="s">
         <v>143</v>
       </c>
@@ -5907,13 +5907,13 @@
       </c>
       <c r="N38" s="155">
         <f t="shared" ref="N38:N77" ca="1" si="3">IF(M58&lt;TODAY(),M38-TODAY(), DATEDIF(TODAY(),M38,"d"))</f>
-        <v>247</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="A39" s="210"/>
-      <c r="B39" s="237"/>
-      <c r="C39" s="239"/>
+      <c r="B39" s="235"/>
+      <c r="C39" s="237"/>
       <c r="D39" s="96" t="s">
         <v>144</v>
       </c>
@@ -5938,13 +5938,13 @@
       </c>
       <c r="N39" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>247</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="A40" s="210"/>
-      <c r="B40" s="237"/>
-      <c r="C40" s="239"/>
+      <c r="B40" s="235"/>
+      <c r="C40" s="237"/>
       <c r="D40" s="96" t="s">
         <v>145</v>
       </c>
@@ -5969,13 +5969,13 @@
       </c>
       <c r="N40" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>247</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="A41" s="210"/>
-      <c r="B41" s="237"/>
-      <c r="C41" s="239"/>
+      <c r="B41" s="235"/>
+      <c r="C41" s="237"/>
       <c r="D41" s="96" t="s">
         <v>146</v>
       </c>
@@ -6000,13 +6000,13 @@
       </c>
       <c r="N41" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>247</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="210"/>
-      <c r="B42" s="237"/>
-      <c r="C42" s="239"/>
+      <c r="B42" s="235"/>
+      <c r="C42" s="237"/>
       <c r="D42" s="96" t="s">
         <v>147</v>
       </c>
@@ -6031,13 +6031,13 @@
       </c>
       <c r="N42" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>247</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="210"/>
-      <c r="B43" s="237"/>
-      <c r="C43" s="239"/>
+      <c r="B43" s="235"/>
+      <c r="C43" s="237"/>
       <c r="D43" s="96" t="s">
         <v>148</v>
       </c>
@@ -6062,13 +6062,13 @@
       </c>
       <c r="N43" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>247</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="A44" s="210"/>
-      <c r="B44" s="237"/>
-      <c r="C44" s="239"/>
+      <c r="B44" s="235"/>
+      <c r="C44" s="237"/>
       <c r="D44" s="96" t="s">
         <v>149</v>
       </c>
@@ -6093,13 +6093,13 @@
       </c>
       <c r="N44" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>247</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="A45" s="210"/>
-      <c r="B45" s="237"/>
-      <c r="C45" s="239"/>
+      <c r="B45" s="235"/>
+      <c r="C45" s="237"/>
       <c r="D45" s="96" t="s">
         <v>150</v>
       </c>
@@ -6124,13 +6124,13 @@
       </c>
       <c r="N45" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>247</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="A46" s="210"/>
-      <c r="B46" s="237"/>
-      <c r="C46" s="239"/>
+      <c r="B46" s="235"/>
+      <c r="C46" s="237"/>
       <c r="D46" s="96" t="s">
         <v>151</v>
       </c>
@@ -6155,13 +6155,13 @@
       </c>
       <c r="N46" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>247</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="A47" s="210"/>
-      <c r="B47" s="237"/>
-      <c r="C47" s="239"/>
+      <c r="B47" s="235"/>
+      <c r="C47" s="237"/>
       <c r="D47" s="96" t="s">
         <v>152</v>
       </c>
@@ -6186,13 +6186,13 @@
       </c>
       <c r="N47" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>247</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="A48" s="210"/>
-      <c r="B48" s="237"/>
-      <c r="C48" s="239"/>
+      <c r="B48" s="235"/>
+      <c r="C48" s="237"/>
       <c r="D48" s="96" t="s">
         <v>153</v>
       </c>
@@ -6217,13 +6217,13 @@
       </c>
       <c r="N48" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>247</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:17" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="A49" s="210"/>
-      <c r="B49" s="237"/>
-      <c r="C49" s="239"/>
+      <c r="B49" s="235"/>
+      <c r="C49" s="237"/>
       <c r="D49" s="96" t="s">
         <v>154</v>
       </c>
@@ -6248,13 +6248,13 @@
       </c>
       <c r="N49" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>247</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:17" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="A50" s="210"/>
-      <c r="B50" s="237"/>
-      <c r="C50" s="240"/>
+      <c r="B50" s="235"/>
+      <c r="C50" s="238"/>
       <c r="D50" s="96" t="s">
         <v>155</v>
       </c>
@@ -6279,7 +6279,7 @@
       </c>
       <c r="N50" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>247</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:17" s="27" customFormat="1" ht="18.75">
@@ -6292,7 +6292,7 @@
       <c r="C51" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="D51" s="237" t="s">
+      <c r="D51" s="235" t="s">
         <v>246</v>
       </c>
       <c r="E51" s="133">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="N51" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="27" customFormat="1" ht="18.75">
@@ -6325,7 +6325,7 @@
       <c r="C52" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="D52" s="237"/>
+      <c r="D52" s="235"/>
       <c r="E52" s="133">
         <v>5</v>
       </c>
@@ -6343,7 +6343,7 @@
       </c>
       <c r="N52" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
     </row>
     <row r="53" spans="1:17" s="27" customFormat="1" ht="18.75">
@@ -6356,7 +6356,7 @@
       <c r="C53" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="D53" s="237"/>
+      <c r="D53" s="235"/>
       <c r="E53" s="133">
         <v>30</v>
       </c>
@@ -6374,7 +6374,7 @@
       </c>
       <c r="N53" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54" spans="1:17" s="27" customFormat="1" ht="18.75">
@@ -6387,7 +6387,7 @@
       <c r="C54" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="D54" s="237"/>
+      <c r="D54" s="235"/>
       <c r="E54" s="133">
         <v>200</v>
       </c>
@@ -6405,7 +6405,7 @@
       </c>
       <c r="N54" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="27" customFormat="1" ht="18.75">
@@ -6438,7 +6438,7 @@
       </c>
       <c r="N55" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
     </row>
     <row r="56" spans="1:17" s="27" customFormat="1" ht="18.75">
@@ -6451,7 +6451,7 @@
       <c r="C56" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="D56" s="237" t="s">
+      <c r="D56" s="235" t="s">
         <v>252</v>
       </c>
       <c r="E56" s="133">
@@ -6471,7 +6471,7 @@
       </c>
       <c r="N56" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
     </row>
     <row r="57" spans="1:17" s="27" customFormat="1" ht="18.75">
@@ -6484,7 +6484,7 @@
       <c r="C57" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="D57" s="237"/>
+      <c r="D57" s="235"/>
       <c r="E57" s="133">
         <v>5</v>
       </c>
@@ -6502,7 +6502,7 @@
       </c>
       <c r="N57" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
     </row>
     <row r="58" spans="1:17" s="27" customFormat="1" ht="18.75">
@@ -6515,7 +6515,7 @@
       <c r="C58" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="D58" s="237"/>
+      <c r="D58" s="235"/>
       <c r="E58" s="133">
         <v>15</v>
       </c>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="N58" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
     </row>
     <row r="59" spans="1:17" s="27" customFormat="1" ht="18.75">
@@ -6546,7 +6546,7 @@
       <c r="C59" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="D59" s="237" t="s">
+      <c r="D59" s="235" t="s">
         <v>253</v>
       </c>
       <c r="E59" s="133">
@@ -6566,7 +6566,7 @@
       </c>
       <c r="N59" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="27" customFormat="1" ht="18.75">
@@ -6579,7 +6579,7 @@
       <c r="C60" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="D60" s="237"/>
+      <c r="D60" s="235"/>
       <c r="E60" s="133">
         <v>1</v>
       </c>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="N60" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
     </row>
     <row r="61" spans="1:17" s="27" customFormat="1" ht="18.75">
@@ -6610,7 +6610,7 @@
       <c r="C61" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="D61" s="237"/>
+      <c r="D61" s="235"/>
       <c r="E61" s="133">
         <v>1</v>
       </c>
@@ -6628,7 +6628,7 @@
       </c>
       <c r="N61" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
       <c r="Q61" s="168"/>
     </row>
@@ -6642,7 +6642,7 @@
       <c r="C62" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="D62" s="237"/>
+      <c r="D62" s="235"/>
       <c r="E62" s="133">
         <v>1</v>
       </c>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="N62" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
       <c r="Q62" s="169"/>
     </row>
@@ -6674,7 +6674,7 @@
       <c r="C63" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="D63" s="237"/>
+      <c r="D63" s="235"/>
       <c r="E63" s="133">
         <v>2</v>
       </c>
@@ -6692,7 +6692,7 @@
       </c>
       <c r="N63" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
       <c r="Q63" s="169"/>
     </row>
@@ -6706,7 +6706,7 @@
       <c r="C64" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="237"/>
+      <c r="D64" s="235"/>
       <c r="E64" s="133">
         <v>25</v>
       </c>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="N64" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
       <c r="Q64" s="169"/>
     </row>
@@ -6738,7 +6738,7 @@
       <c r="C65" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="D65" s="237"/>
+      <c r="D65" s="235"/>
       <c r="E65" s="133">
         <v>15</v>
       </c>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="N65" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
       <c r="Q65" s="169"/>
     </row>
@@ -6770,7 +6770,7 @@
       <c r="C66" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="D66" s="237"/>
+      <c r="D66" s="235"/>
       <c r="E66" s="133">
         <v>90</v>
       </c>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="N66" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
       <c r="Q66" s="169"/>
     </row>
@@ -6802,7 +6802,7 @@
       <c r="C67" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="D67" s="237"/>
+      <c r="D67" s="235"/>
       <c r="E67" s="133">
         <v>200</v>
       </c>
@@ -6820,7 +6820,7 @@
       </c>
       <c r="N67" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
       <c r="Q67" s="169"/>
     </row>
@@ -6852,7 +6852,7 @@
       </c>
       <c r="N68" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
       <c r="Q68" s="169"/>
     </row>
@@ -6886,7 +6886,7 @@
       </c>
       <c r="N69" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="27" customFormat="1" ht="18.75">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="N70" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
     </row>
     <row r="71" spans="1:17" s="27" customFormat="1" ht="18.75">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="N71" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
     </row>
     <row r="72" spans="1:17" s="27" customFormat="1" ht="18.75">
@@ -6965,7 +6965,7 @@
       <c r="C72" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="D72" s="237" t="s">
+      <c r="D72" s="235" t="s">
         <v>265</v>
       </c>
       <c r="E72" s="133">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="N72" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="27" customFormat="1" ht="18.75">
@@ -6998,7 +6998,7 @@
       <c r="C73" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="D73" s="237"/>
+      <c r="D73" s="235"/>
       <c r="E73" s="133">
         <v>300</v>
       </c>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="N73" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="27" customFormat="1" ht="18.75">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="N74" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="27" customFormat="1" ht="18.75">
@@ -7062,7 +7062,7 @@
       <c r="C75" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="D75" s="237" t="s">
+      <c r="D75" s="235" t="s">
         <v>269</v>
       </c>
       <c r="E75" s="133">
@@ -7082,7 +7082,7 @@
       </c>
       <c r="N75" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
     </row>
     <row r="76" spans="1:17" s="27" customFormat="1" ht="18.75">
@@ -7095,7 +7095,7 @@
       <c r="C76" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="D76" s="237"/>
+      <c r="D76" s="235"/>
       <c r="E76" s="133">
         <v>8</v>
       </c>
@@ -7113,7 +7113,7 @@
       </c>
       <c r="N76" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
     </row>
     <row r="77" spans="1:17" s="27" customFormat="1" ht="18.75">
@@ -7126,7 +7126,7 @@
       <c r="C77" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="D77" s="237"/>
+      <c r="D77" s="235"/>
       <c r="E77" s="133">
         <v>2</v>
       </c>
@@ -7144,11 +7144,16 @@
       </c>
       <c r="N77" s="155">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="D72:D73"/>
     <mergeCell ref="D75:D77"/>
     <mergeCell ref="C37:C50"/>
     <mergeCell ref="A38:A50"/>
@@ -7156,11 +7161,6 @@
     <mergeCell ref="D51:D54"/>
     <mergeCell ref="D56:D58"/>
     <mergeCell ref="D59:D67"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="D72:D73"/>
   </mergeCells>
   <conditionalFormatting sqref="N4:N77">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThanOrEqual">
@@ -7384,28 +7384,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="34.5" customHeight="1">
-      <c r="A1" s="249" t="s">
+      <c r="A1" s="261" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="249"/>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="249"/>
-      <c r="J1" s="249"/>
-      <c r="K1" s="249"/>
+      <c r="B1" s="261"/>
+      <c r="C1" s="261"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="261"/>
+      <c r="G1" s="261"/>
+      <c r="H1" s="261"/>
+      <c r="I1" s="261"/>
+      <c r="J1" s="261"/>
+      <c r="K1" s="261"/>
     </row>
     <row r="2" spans="1:13" ht="44.25" customHeight="1">
       <c r="A2" s="170" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="250" t="s">
+      <c r="B2" s="262" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="251"/>
+      <c r="C2" s="263"/>
       <c r="D2" s="171" t="s">
         <v>325</v>
       </c>
@@ -7433,10 +7433,10 @@
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:13" ht="44.25" customHeight="1">
-      <c r="A3" s="252">
+      <c r="A3" s="264">
         <v>1</v>
       </c>
-      <c r="B3" s="255" t="s">
+      <c r="B3" s="267" t="s">
         <v>87</v>
       </c>
       <c r="C3" s="138" t="s">
@@ -7459,19 +7459,19 @@
       </c>
       <c r="I3" s="172">
         <f ca="1">IF(H3&lt;TODAY(),H3-TODAY(), DATEDIF(TODAY(),H3,"d"))</f>
-        <v>828</v>
-      </c>
-      <c r="J3" s="252" t="s">
+        <v>755</v>
+      </c>
+      <c r="J3" s="264" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="252" t="s">
+      <c r="K3" s="264" t="s">
         <v>328</v>
       </c>
       <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="45">
-      <c r="A4" s="253"/>
-      <c r="B4" s="256"/>
+      <c r="A4" s="265"/>
+      <c r="B4" s="268"/>
       <c r="C4" s="138" t="s">
         <v>90</v>
       </c>
@@ -7492,15 +7492,15 @@
       </c>
       <c r="I4" s="172">
         <f ca="1">IF(H4&lt;TODAY(),H4-TODAY(), DATEDIF(TODAY(),H4,"d"))</f>
-        <v>1040</v>
-      </c>
-      <c r="J4" s="253"/>
-      <c r="K4" s="253"/>
+        <v>967</v>
+      </c>
+      <c r="J4" s="265"/>
+      <c r="K4" s="265"/>
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="45">
-      <c r="A5" s="253"/>
-      <c r="B5" s="256"/>
+      <c r="A5" s="265"/>
+      <c r="B5" s="268"/>
       <c r="C5" s="138" t="s">
         <v>91</v>
       </c>
@@ -7521,14 +7521,14 @@
       </c>
       <c r="I5" s="172">
         <f ca="1">IF(H5&lt;TODAY(),H5-TODAY(), DATEDIF(TODAY(),H5,"d"))</f>
-        <v>1067</v>
-      </c>
-      <c r="J5" s="253"/>
-      <c r="K5" s="253"/>
+        <v>994</v>
+      </c>
+      <c r="J5" s="265"/>
+      <c r="K5" s="265"/>
     </row>
     <row r="6" spans="1:13" ht="45">
-      <c r="A6" s="253"/>
-      <c r="B6" s="256"/>
+      <c r="A6" s="265"/>
+      <c r="B6" s="268"/>
       <c r="C6" s="138" t="s">
         <v>332</v>
       </c>
@@ -7547,14 +7547,14 @@
       <c r="H6" s="176"/>
       <c r="I6" s="172">
         <f ca="1">IF(G6&lt;TODAY(),G6-TODAY(), DATEDIF(TODAY(),G6,"d"))</f>
-        <v>583</v>
-      </c>
-      <c r="J6" s="253"/>
-      <c r="K6" s="253"/>
+        <v>510</v>
+      </c>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
     </row>
     <row r="7" spans="1:13" ht="30">
-      <c r="A7" s="253"/>
-      <c r="B7" s="256"/>
+      <c r="A7" s="265"/>
+      <c r="B7" s="268"/>
       <c r="C7" s="137" t="s">
         <v>160</v>
       </c>
@@ -7571,14 +7571,14 @@
       <c r="H7" s="178"/>
       <c r="I7" s="179">
         <f ca="1">IF(G7&lt;TODAY(),G7-TODAY(), DATEDIF(TODAY(),G7,"d"))</f>
-        <v>66</v>
-      </c>
-      <c r="J7" s="253"/>
-      <c r="K7" s="253"/>
+        <v>-7</v>
+      </c>
+      <c r="J7" s="265"/>
+      <c r="K7" s="265"/>
     </row>
     <row r="8" spans="1:13" ht="30">
-      <c r="A8" s="254"/>
-      <c r="B8" s="257"/>
+      <c r="A8" s="266"/>
+      <c r="B8" s="269"/>
       <c r="C8" s="138" t="s">
         <v>161</v>
       </c>
@@ -7595,16 +7595,16 @@
       </c>
       <c r="I8" s="172">
         <f ca="1">IF(H8&lt;TODAY(),H8-TODAY(), DATEDIF(TODAY(),H8,"d"))</f>
-        <v>1009</v>
-      </c>
-      <c r="J8" s="254"/>
-      <c r="K8" s="254"/>
+        <v>936</v>
+      </c>
+      <c r="J8" s="266"/>
+      <c r="K8" s="266"/>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1">
-      <c r="A9" s="262">
+      <c r="A9" s="253">
         <v>2</v>
       </c>
-      <c r="B9" s="263" t="s">
+      <c r="B9" s="254" t="s">
         <v>93</v>
       </c>
       <c r="C9" s="145" t="s">
@@ -7622,16 +7622,16 @@
       <c r="I9" s="174" t="s">
         <v>337</v>
       </c>
-      <c r="J9" s="261" t="s">
+      <c r="J9" s="252" t="s">
         <v>338</v>
       </c>
-      <c r="K9" s="261" t="s">
+      <c r="K9" s="252" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1">
-      <c r="A10" s="262"/>
-      <c r="B10" s="263"/>
+      <c r="A10" s="253"/>
+      <c r="B10" s="254"/>
       <c r="C10" s="145" t="s">
         <v>95</v>
       </c>
@@ -7647,12 +7647,12 @@
       <c r="I10" s="174" t="s">
         <v>337</v>
       </c>
-      <c r="J10" s="261"/>
-      <c r="K10" s="261"/>
+      <c r="J10" s="252"/>
+      <c r="K10" s="252"/>
     </row>
     <row r="11" spans="1:13" ht="30" customHeight="1">
-      <c r="A11" s="262"/>
-      <c r="B11" s="263"/>
+      <c r="A11" s="253"/>
+      <c r="B11" s="254"/>
       <c r="C11" s="145" t="s">
         <v>96</v>
       </c>
@@ -7668,12 +7668,12 @@
       <c r="I11" s="174" t="s">
         <v>337</v>
       </c>
-      <c r="J11" s="261"/>
-      <c r="K11" s="261"/>
+      <c r="J11" s="252"/>
+      <c r="K11" s="252"/>
     </row>
     <row r="12" spans="1:13" ht="30">
-      <c r="A12" s="262"/>
-      <c r="B12" s="263"/>
+      <c r="A12" s="253"/>
+      <c r="B12" s="254"/>
       <c r="C12" s="145" t="s">
         <v>97</v>
       </c>
@@ -7689,8 +7689,8 @@
       <c r="I12" s="176" t="s">
         <v>337</v>
       </c>
-      <c r="J12" s="261"/>
-      <c r="K12" s="261"/>
+      <c r="J12" s="252"/>
+      <c r="K12" s="252"/>
     </row>
     <row r="13" spans="1:13" ht="85.5">
       <c r="A13" s="71">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="I13" s="172">
         <f ca="1">IF(H13&lt;TODAY(),H13-TODAY(), DATEDIF(TODAY(),H13,"d"))</f>
-        <v>371</v>
+        <v>298</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>99</v>
@@ -7744,7 +7744,7 @@
       </c>
       <c r="I14" s="172">
         <f ca="1">IF(H14&lt;TODAY(),H14-TODAY(), DATEDIF(TODAY(),H14,"d"))</f>
-        <v>248</v>
+        <v>175</v>
       </c>
       <c r="J14" s="20" t="s">
         <v>99</v>
@@ -7788,17 +7788,17 @@
       <c r="B16" s="185" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="264" t="s">
+      <c r="C16" s="255" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="265"/>
-      <c r="E16" s="265"/>
-      <c r="F16" s="265"/>
-      <c r="G16" s="265"/>
-      <c r="H16" s="265"/>
-      <c r="I16" s="265"/>
-      <c r="J16" s="265"/>
-      <c r="K16" s="266"/>
+      <c r="D16" s="256"/>
+      <c r="E16" s="256"/>
+      <c r="F16" s="256"/>
+      <c r="G16" s="256"/>
+      <c r="H16" s="256"/>
+      <c r="I16" s="256"/>
+      <c r="J16" s="256"/>
+      <c r="K16" s="257"/>
       <c r="M16" s="27" t="s">
         <v>108</v>
       </c>
@@ -7810,17 +7810,17 @@
       <c r="B17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="267" t="s">
+      <c r="C17" s="258" t="s">
         <v>343</v>
       </c>
-      <c r="D17" s="268"/>
-      <c r="E17" s="268"/>
-      <c r="F17" s="268"/>
-      <c r="G17" s="268"/>
-      <c r="H17" s="268"/>
-      <c r="I17" s="268"/>
-      <c r="J17" s="268"/>
-      <c r="K17" s="269"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="259"/>
+      <c r="F17" s="259"/>
+      <c r="G17" s="259"/>
+      <c r="H17" s="259"/>
+      <c r="I17" s="259"/>
+      <c r="J17" s="259"/>
+      <c r="K17" s="260"/>
     </row>
     <row r="18" spans="1:13" s="27" customFormat="1" ht="59.25" customHeight="1">
       <c r="A18" s="133">
@@ -7829,17 +7829,17 @@
       <c r="B18" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="258" t="s">
+      <c r="C18" s="249" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="259"/>
-      <c r="E18" s="259"/>
-      <c r="F18" s="259"/>
-      <c r="G18" s="259"/>
-      <c r="H18" s="259"/>
-      <c r="I18" s="259"/>
-      <c r="J18" s="259"/>
-      <c r="K18" s="260"/>
+      <c r="D18" s="250"/>
+      <c r="E18" s="250"/>
+      <c r="F18" s="250"/>
+      <c r="G18" s="250"/>
+      <c r="H18" s="250"/>
+      <c r="I18" s="250"/>
+      <c r="J18" s="250"/>
+      <c r="K18" s="251"/>
       <c r="L18" s="28"/>
       <c r="M18" s="29" t="s">
         <v>111</v>
@@ -7854,10 +7854,10 @@
       </c>
       <c r="C19" s="186"/>
       <c r="D19" s="186"/>
-      <c r="E19" s="261" t="s">
+      <c r="E19" s="252" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="262"/>
+      <c r="F19" s="253"/>
       <c r="G19" s="71"/>
       <c r="H19" s="71"/>
       <c r="I19" s="71"/>
@@ -7870,6 +7870,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="J3:J8"/>
+    <mergeCell ref="K3:K8"/>
     <mergeCell ref="C18:K18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="A9:A12"/>
@@ -7878,12 +7884,6 @@
     <mergeCell ref="K9:K12"/>
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="C17:K17"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="J3:J8"/>
-    <mergeCell ref="K3:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I15">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
@@ -7902,8 +7902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7912,7 +7912,7 @@
     <col min="2" max="2" width="20.5703125" style="38" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" style="32" customWidth="1"/>
     <col min="7" max="8" width="12.7109375" style="32" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="32" bestFit="1" customWidth="1"/>
@@ -7925,69 +7925,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27" customHeight="1" thickBot="1">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="292" t="s">
         <v>354</v>
       </c>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="318"/>
-      <c r="E1" s="318"/>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
-      <c r="J1" s="318"/>
-      <c r="K1" s="318"/>
-      <c r="L1" s="318"/>
-      <c r="M1" s="318"/>
-      <c r="N1" s="318"/>
-      <c r="O1" s="318"/>
-      <c r="P1" s="318"/>
-      <c r="Q1" s="318"/>
-      <c r="R1" s="318"/>
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="292"/>
+      <c r="P1" s="292"/>
+      <c r="Q1" s="292"/>
+      <c r="R1" s="292"/>
     </row>
     <row r="2" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A2" s="325" t="s">
+      <c r="A2" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="327" t="s">
+      <c r="B2" s="285" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="319" t="s">
+      <c r="C2" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="320"/>
-      <c r="E2" s="278" t="s">
+      <c r="D2" s="294"/>
+      <c r="E2" s="316" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="278" t="s">
+      <c r="F2" s="316" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="282" t="s">
+      <c r="G2" s="334" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="282"/>
-      <c r="I2" s="282"/>
-      <c r="J2" s="282"/>
-      <c r="K2" s="282"/>
-      <c r="L2" s="282"/>
-      <c r="M2" s="282"/>
-      <c r="N2" s="282"/>
-      <c r="O2" s="282"/>
-      <c r="P2" s="282"/>
-      <c r="Q2" s="282"/>
-      <c r="R2" s="283"/>
-      <c r="S2" s="270" t="s">
+      <c r="H2" s="334"/>
+      <c r="I2" s="334"/>
+      <c r="J2" s="334"/>
+      <c r="K2" s="334"/>
+      <c r="L2" s="334"/>
+      <c r="M2" s="334"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="334"/>
+      <c r="P2" s="334"/>
+      <c r="Q2" s="334"/>
+      <c r="R2" s="335"/>
+      <c r="S2" s="324" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="27" customHeight="1" thickBot="1">
-      <c r="A3" s="326"/>
-      <c r="B3" s="328"/>
-      <c r="C3" s="321"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="279"/>
-      <c r="F3" s="279"/>
+      <c r="A3" s="284"/>
+      <c r="B3" s="286"/>
+      <c r="C3" s="295"/>
+      <c r="D3" s="296"/>
+      <c r="E3" s="317"/>
+      <c r="F3" s="317"/>
       <c r="G3" s="202">
         <v>1</v>
       </c>
@@ -8024,7 +8024,7 @@
       <c r="R3" s="203">
         <v>12</v>
       </c>
-      <c r="S3" s="271"/>
+      <c r="S3" s="325"/>
     </row>
     <row r="4" spans="1:19" ht="57">
       <c r="A4" s="129">
@@ -8033,11 +8033,11 @@
       <c r="B4" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="287" t="s">
+      <c r="C4" s="339" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="288"/>
-      <c r="E4" s="253" t="s">
+      <c r="D4" s="340"/>
+      <c r="E4" s="265" t="s">
         <v>293</v>
       </c>
       <c r="F4" s="201" t="s">
@@ -8075,11 +8075,11 @@
       <c r="B5" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="289" t="s">
+      <c r="C5" s="307" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="290"/>
-      <c r="E5" s="253"/>
+      <c r="D5" s="308"/>
+      <c r="E5" s="265"/>
       <c r="F5" s="145" t="s">
         <v>295</v>
       </c>
@@ -8119,11 +8119,11 @@
       <c r="B6" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="289" t="s">
+      <c r="C6" s="307" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="290"/>
-      <c r="E6" s="253"/>
+      <c r="D6" s="308"/>
+      <c r="E6" s="265"/>
       <c r="F6" s="140" t="s">
         <v>125</v>
       </c>
@@ -8153,11 +8153,11 @@
       <c r="B7" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="284" t="s">
+      <c r="C7" s="336" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="284"/>
-      <c r="E7" s="253"/>
+      <c r="D7" s="336"/>
+      <c r="E7" s="265"/>
       <c r="F7" s="145" t="s">
         <v>127</v>
       </c>
@@ -8189,11 +8189,11 @@
       <c r="B8" s="100" t="s">
         <v>349</v>
       </c>
-      <c r="C8" s="339" t="s">
+      <c r="C8" s="275" t="s">
         <v>350</v>
       </c>
-      <c r="D8" s="340"/>
-      <c r="E8" s="253"/>
+      <c r="D8" s="276"/>
+      <c r="E8" s="265"/>
       <c r="F8" s="201" t="s">
         <v>125</v>
       </c>
@@ -8220,11 +8220,11 @@
       <c r="B9" s="102" t="s">
         <v>304</v>
       </c>
-      <c r="C9" s="261" t="s">
+      <c r="C9" s="252" t="s">
         <v>348</v>
       </c>
-      <c r="D9" s="261"/>
-      <c r="E9" s="253"/>
+      <c r="D9" s="252"/>
+      <c r="E9" s="265"/>
       <c r="F9" s="145" t="s">
         <v>131</v>
       </c>
@@ -8276,11 +8276,11 @@
       <c r="B10" s="143" t="s">
         <v>300</v>
       </c>
-      <c r="C10" s="291" t="s">
+      <c r="C10" s="341" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="292"/>
-      <c r="E10" s="253"/>
+      <c r="D10" s="342"/>
+      <c r="E10" s="265"/>
       <c r="F10" s="201" t="s">
         <v>125</v>
       </c>
@@ -8307,14 +8307,14 @@
       <c r="A11" s="189">
         <v>1</v>
       </c>
-      <c r="B11" s="331" t="s">
+      <c r="B11" s="289" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="280" t="s">
+      <c r="C11" s="332" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="281"/>
-      <c r="E11" s="294" t="s">
+      <c r="D11" s="333"/>
+      <c r="E11" s="318" t="s">
         <v>157</v>
       </c>
       <c r="F11" s="144" t="s">
@@ -8349,12 +8349,12 @@
       <c r="A12" s="190">
         <v>2</v>
       </c>
-      <c r="B12" s="332"/>
-      <c r="C12" s="276" t="s">
+      <c r="B12" s="290"/>
+      <c r="C12" s="330" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="277"/>
-      <c r="E12" s="295"/>
+      <c r="D12" s="331"/>
+      <c r="E12" s="319"/>
       <c r="F12" s="140" t="s">
         <v>125</v>
       </c>
@@ -8382,12 +8382,12 @@
       <c r="A13" s="191">
         <v>3</v>
       </c>
-      <c r="B13" s="333"/>
-      <c r="C13" s="274" t="s">
+      <c r="B13" s="291"/>
+      <c r="C13" s="328" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="275"/>
-      <c r="E13" s="296"/>
+      <c r="D13" s="329"/>
+      <c r="E13" s="320"/>
       <c r="F13" s="36" t="s">
         <v>127</v>
       </c>
@@ -8419,10 +8419,10 @@
       <c r="B14" s="107" t="s">
         <v>301</v>
       </c>
-      <c r="C14" s="285" t="s">
+      <c r="C14" s="337" t="s">
         <v>302</v>
       </c>
-      <c r="D14" s="286"/>
+      <c r="D14" s="338"/>
       <c r="E14" s="106" t="s">
         <v>303</v>
       </c>
@@ -8450,14 +8450,14 @@
       <c r="A15" s="35">
         <v>1</v>
       </c>
-      <c r="B15" s="329" t="s">
+      <c r="B15" s="287" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="272" t="s">
+      <c r="C15" s="326" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="273"/>
-      <c r="E15" s="297"/>
+      <c r="D15" s="327"/>
+      <c r="E15" s="321"/>
       <c r="F15" s="37" t="s">
         <v>128</v>
       </c>
@@ -8482,12 +8482,12 @@
       <c r="A16" s="33">
         <v>2</v>
       </c>
-      <c r="B16" s="330"/>
-      <c r="C16" s="267" t="s">
+      <c r="B16" s="288"/>
+      <c r="C16" s="258" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="269"/>
-      <c r="E16" s="298"/>
+      <c r="D16" s="260"/>
+      <c r="E16" s="322"/>
       <c r="F16" s="138" t="s">
         <v>128</v>
       </c>
@@ -8514,12 +8514,12 @@
       <c r="A17" s="33">
         <v>3</v>
       </c>
-      <c r="B17" s="330"/>
-      <c r="C17" s="267" t="s">
+      <c r="B17" s="288"/>
+      <c r="C17" s="258" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="269"/>
-      <c r="E17" s="298"/>
+      <c r="D17" s="260"/>
+      <c r="E17" s="322"/>
       <c r="F17" s="138" t="s">
         <v>128</v>
       </c>
@@ -8549,12 +8549,12 @@
       <c r="A18" s="33">
         <v>4</v>
       </c>
-      <c r="B18" s="330"/>
-      <c r="C18" s="323" t="s">
+      <c r="B18" s="288"/>
+      <c r="C18" s="297" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="324"/>
-      <c r="E18" s="298"/>
+      <c r="D18" s="298"/>
+      <c r="E18" s="322"/>
       <c r="F18" s="136" t="s">
         <v>125</v>
       </c>
@@ -8581,12 +8581,12 @@
       <c r="A19" s="33">
         <v>6</v>
       </c>
-      <c r="B19" s="330"/>
-      <c r="C19" s="267" t="s">
+      <c r="B19" s="288"/>
+      <c r="C19" s="258" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="269"/>
-      <c r="E19" s="298"/>
+      <c r="D19" s="260"/>
+      <c r="E19" s="322"/>
       <c r="F19" s="138" t="s">
         <v>128</v>
       </c>
@@ -8611,12 +8611,12 @@
       <c r="A20" s="33">
         <v>7</v>
       </c>
-      <c r="B20" s="330"/>
-      <c r="C20" s="267" t="s">
+      <c r="B20" s="288"/>
+      <c r="C20" s="258" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="269"/>
-      <c r="E20" s="298"/>
+      <c r="D20" s="260"/>
+      <c r="E20" s="322"/>
       <c r="F20" s="138" t="s">
         <v>125</v>
       </c>
@@ -8643,12 +8643,12 @@
       <c r="A21" s="33">
         <v>8</v>
       </c>
-      <c r="B21" s="330"/>
-      <c r="C21" s="267" t="s">
+      <c r="B21" s="288"/>
+      <c r="C21" s="258" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="269"/>
-      <c r="E21" s="299"/>
+      <c r="D21" s="260"/>
+      <c r="E21" s="323"/>
       <c r="F21" s="138" t="s">
         <v>129</v>
       </c>
@@ -8673,11 +8673,11 @@
       <c r="A22" s="33">
         <v>9</v>
       </c>
-      <c r="B22" s="330"/>
-      <c r="C22" s="267" t="s">
+      <c r="B22" s="288"/>
+      <c r="C22" s="258" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="269"/>
+      <c r="D22" s="260"/>
       <c r="E22" s="41"/>
       <c r="F22" s="138" t="s">
         <v>125</v>
@@ -8703,15 +8703,15 @@
       <c r="A23" s="35">
         <v>1</v>
       </c>
-      <c r="B23" s="329" t="s">
+      <c r="B23" s="287" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="316" t="s">
+      <c r="C23" s="279" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="317"/>
-      <c r="E23" s="294"/>
-      <c r="F23" s="238" t="s">
+      <c r="D23" s="280"/>
+      <c r="E23" s="318"/>
+      <c r="F23" s="236" t="s">
         <v>179</v>
       </c>
       <c r="G23" s="98"/>
@@ -8737,13 +8737,13 @@
       <c r="A24" s="33">
         <v>2</v>
       </c>
-      <c r="B24" s="330"/>
-      <c r="C24" s="314" t="s">
+      <c r="B24" s="288"/>
+      <c r="C24" s="277" t="s">
         <v>305</v>
       </c>
-      <c r="D24" s="315"/>
-      <c r="E24" s="295"/>
-      <c r="F24" s="239"/>
+      <c r="D24" s="278"/>
+      <c r="E24" s="319"/>
+      <c r="F24" s="237"/>
       <c r="G24" s="117"/>
       <c r="H24" s="117"/>
       <c r="I24" s="117"/>
@@ -8767,13 +8767,13 @@
       <c r="A25" s="33">
         <v>3</v>
       </c>
-      <c r="B25" s="330"/>
-      <c r="C25" s="316" t="s">
+      <c r="B25" s="288"/>
+      <c r="C25" s="279" t="s">
         <v>188</v>
       </c>
-      <c r="D25" s="317"/>
-      <c r="E25" s="295"/>
-      <c r="F25" s="240"/>
+      <c r="D25" s="280"/>
+      <c r="E25" s="319"/>
+      <c r="F25" s="238"/>
       <c r="G25" s="117"/>
       <c r="H25" s="117"/>
       <c r="I25" s="117"/>
@@ -8795,12 +8795,12 @@
       <c r="A26" s="108">
         <v>4</v>
       </c>
-      <c r="B26" s="330"/>
-      <c r="C26" s="314" t="s">
+      <c r="B26" s="288"/>
+      <c r="C26" s="277" t="s">
         <v>191</v>
       </c>
-      <c r="D26" s="315"/>
-      <c r="E26" s="295"/>
+      <c r="D26" s="278"/>
+      <c r="E26" s="319"/>
       <c r="F26" s="133" t="s">
         <v>189</v>
       </c>
@@ -8825,12 +8825,12 @@
       <c r="A27" s="108">
         <v>5</v>
       </c>
-      <c r="B27" s="330"/>
-      <c r="C27" s="314" t="s">
+      <c r="B27" s="288"/>
+      <c r="C27" s="277" t="s">
         <v>306</v>
       </c>
-      <c r="D27" s="315"/>
-      <c r="E27" s="295"/>
+      <c r="D27" s="278"/>
+      <c r="E27" s="319"/>
       <c r="F27" s="133" t="s">
         <v>189</v>
       </c>
@@ -8857,12 +8857,12 @@
       <c r="A28" s="108">
         <v>6</v>
       </c>
-      <c r="B28" s="330"/>
-      <c r="C28" s="316" t="s">
+      <c r="B28" s="288"/>
+      <c r="C28" s="279" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="317"/>
-      <c r="E28" s="295"/>
+      <c r="D28" s="280"/>
+      <c r="E28" s="319"/>
       <c r="F28" s="133" t="s">
         <v>189</v>
       </c>
@@ -8889,12 +8889,12 @@
       <c r="A29" s="108">
         <v>7</v>
       </c>
-      <c r="B29" s="330"/>
-      <c r="C29" s="314" t="s">
+      <c r="B29" s="288"/>
+      <c r="C29" s="277" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="315"/>
-      <c r="E29" s="295"/>
+      <c r="D29" s="278"/>
+      <c r="E29" s="319"/>
       <c r="F29" s="133" t="s">
         <v>189</v>
       </c>
@@ -8921,12 +8921,12 @@
       <c r="A30" s="108">
         <v>8</v>
       </c>
-      <c r="B30" s="330"/>
-      <c r="C30" s="314" t="s">
+      <c r="B30" s="288"/>
+      <c r="C30" s="277" t="s">
         <v>194</v>
       </c>
-      <c r="D30" s="315"/>
-      <c r="E30" s="295"/>
+      <c r="D30" s="278"/>
+      <c r="E30" s="319"/>
       <c r="F30" s="133" t="s">
         <v>189</v>
       </c>
@@ -8953,12 +8953,12 @@
       <c r="A31" s="108">
         <v>9</v>
       </c>
-      <c r="B31" s="330"/>
-      <c r="C31" s="316" t="s">
+      <c r="B31" s="288"/>
+      <c r="C31" s="279" t="s">
         <v>196</v>
       </c>
-      <c r="D31" s="317"/>
-      <c r="E31" s="295"/>
+      <c r="D31" s="280"/>
+      <c r="E31" s="319"/>
       <c r="F31" s="133" t="s">
         <v>189</v>
       </c>
@@ -8983,12 +8983,12 @@
       <c r="A32" s="108">
         <v>10</v>
       </c>
-      <c r="B32" s="330"/>
-      <c r="C32" s="314" t="s">
+      <c r="B32" s="288"/>
+      <c r="C32" s="277" t="s">
         <v>198</v>
       </c>
-      <c r="D32" s="315"/>
-      <c r="E32" s="295"/>
+      <c r="D32" s="278"/>
+      <c r="E32" s="319"/>
       <c r="F32" s="133" t="s">
         <v>189</v>
       </c>
@@ -9013,12 +9013,12 @@
       <c r="A33" s="108">
         <v>11</v>
       </c>
-      <c r="B33" s="330"/>
-      <c r="C33" s="314" t="s">
+      <c r="B33" s="288"/>
+      <c r="C33" s="277" t="s">
         <v>200</v>
       </c>
-      <c r="D33" s="315"/>
-      <c r="E33" s="295"/>
+      <c r="D33" s="278"/>
+      <c r="E33" s="319"/>
       <c r="F33" s="133" t="s">
         <v>189</v>
       </c>
@@ -9043,12 +9043,12 @@
       <c r="A34" s="108">
         <v>12</v>
       </c>
-      <c r="B34" s="330"/>
-      <c r="C34" s="316" t="s">
+      <c r="B34" s="288"/>
+      <c r="C34" s="279" t="s">
         <v>202</v>
       </c>
-      <c r="D34" s="317"/>
-      <c r="E34" s="295"/>
+      <c r="D34" s="280"/>
+      <c r="E34" s="319"/>
       <c r="F34" s="133" t="s">
         <v>189</v>
       </c>
@@ -9073,12 +9073,12 @@
       <c r="A35" s="108">
         <v>13</v>
       </c>
-      <c r="B35" s="330"/>
-      <c r="C35" s="314" t="s">
+      <c r="B35" s="288"/>
+      <c r="C35" s="277" t="s">
         <v>203</v>
       </c>
-      <c r="D35" s="315"/>
-      <c r="E35" s="295"/>
+      <c r="D35" s="278"/>
+      <c r="E35" s="319"/>
       <c r="F35" s="133" t="s">
         <v>189</v>
       </c>
@@ -9103,12 +9103,12 @@
       <c r="A36" s="108">
         <v>14</v>
       </c>
-      <c r="B36" s="330"/>
-      <c r="C36" s="314" t="s">
+      <c r="B36" s="288"/>
+      <c r="C36" s="277" t="s">
         <v>205</v>
       </c>
-      <c r="D36" s="315"/>
-      <c r="E36" s="295"/>
+      <c r="D36" s="278"/>
+      <c r="E36" s="319"/>
       <c r="F36" s="133" t="s">
         <v>189</v>
       </c>
@@ -9135,12 +9135,12 @@
       <c r="A37" s="108">
         <v>15</v>
       </c>
-      <c r="B37" s="330"/>
-      <c r="C37" s="316" t="s">
+      <c r="B37" s="288"/>
+      <c r="C37" s="279" t="s">
         <v>206</v>
       </c>
-      <c r="D37" s="317"/>
-      <c r="E37" s="295"/>
+      <c r="D37" s="280"/>
+      <c r="E37" s="319"/>
       <c r="F37" s="133" t="s">
         <v>189</v>
       </c>
@@ -9167,12 +9167,12 @@
       <c r="A38" s="108">
         <v>16</v>
       </c>
-      <c r="B38" s="330"/>
-      <c r="C38" s="314" t="s">
+      <c r="B38" s="288"/>
+      <c r="C38" s="277" t="s">
         <v>207</v>
       </c>
-      <c r="D38" s="315"/>
-      <c r="E38" s="295"/>
+      <c r="D38" s="278"/>
+      <c r="E38" s="319"/>
       <c r="F38" s="133" t="s">
         <v>189</v>
       </c>
@@ -9197,12 +9197,12 @@
       <c r="A39" s="108">
         <v>17</v>
       </c>
-      <c r="B39" s="330"/>
-      <c r="C39" s="314" t="s">
+      <c r="B39" s="288"/>
+      <c r="C39" s="277" t="s">
         <v>208</v>
       </c>
-      <c r="D39" s="315"/>
-      <c r="E39" s="295"/>
+      <c r="D39" s="278"/>
+      <c r="E39" s="319"/>
       <c r="F39" s="133" t="s">
         <v>189</v>
       </c>
@@ -9227,12 +9227,12 @@
       <c r="A40" s="108">
         <v>18</v>
       </c>
-      <c r="B40" s="330"/>
-      <c r="C40" s="316" t="s">
+      <c r="B40" s="288"/>
+      <c r="C40" s="279" t="s">
         <v>210</v>
       </c>
-      <c r="D40" s="317"/>
-      <c r="E40" s="295"/>
+      <c r="D40" s="280"/>
+      <c r="E40" s="319"/>
       <c r="F40" s="133" t="s">
         <v>189</v>
       </c>
@@ -9257,12 +9257,12 @@
       <c r="A41" s="108">
         <v>19</v>
       </c>
-      <c r="B41" s="330"/>
-      <c r="C41" s="314" t="s">
+      <c r="B41" s="288"/>
+      <c r="C41" s="277" t="s">
         <v>211</v>
       </c>
-      <c r="D41" s="315"/>
-      <c r="E41" s="295"/>
+      <c r="D41" s="278"/>
+      <c r="E41" s="319"/>
       <c r="F41" s="133" t="s">
         <v>189</v>
       </c>
@@ -9287,12 +9287,12 @@
       <c r="A42" s="108">
         <v>20</v>
       </c>
-      <c r="B42" s="330"/>
-      <c r="C42" s="314" t="s">
+      <c r="B42" s="288"/>
+      <c r="C42" s="277" t="s">
         <v>212</v>
       </c>
-      <c r="D42" s="315"/>
-      <c r="E42" s="295"/>
+      <c r="D42" s="278"/>
+      <c r="E42" s="319"/>
       <c r="F42" s="133" t="s">
         <v>189</v>
       </c>
@@ -9321,12 +9321,12 @@
       <c r="A43" s="108">
         <v>21</v>
       </c>
-      <c r="B43" s="330"/>
-      <c r="C43" s="316" t="s">
+      <c r="B43" s="288"/>
+      <c r="C43" s="279" t="s">
         <v>213</v>
       </c>
-      <c r="D43" s="317"/>
-      <c r="E43" s="295"/>
+      <c r="D43" s="280"/>
+      <c r="E43" s="319"/>
       <c r="F43" s="133" t="s">
         <v>189</v>
       </c>
@@ -9351,12 +9351,12 @@
       <c r="A44" s="108">
         <v>22</v>
       </c>
-      <c r="B44" s="330"/>
-      <c r="C44" s="314" t="s">
+      <c r="B44" s="288"/>
+      <c r="C44" s="277" t="s">
         <v>215</v>
       </c>
-      <c r="D44" s="315"/>
-      <c r="E44" s="295"/>
+      <c r="D44" s="278"/>
+      <c r="E44" s="319"/>
       <c r="F44" s="133" t="s">
         <v>189</v>
       </c>
@@ -9383,12 +9383,12 @@
       <c r="A45" s="108">
         <v>23</v>
       </c>
-      <c r="B45" s="330"/>
-      <c r="C45" s="314" t="s">
+      <c r="B45" s="288"/>
+      <c r="C45" s="277" t="s">
         <v>245</v>
       </c>
-      <c r="D45" s="315"/>
-      <c r="E45" s="295"/>
+      <c r="D45" s="278"/>
+      <c r="E45" s="319"/>
       <c r="F45" s="133" t="s">
         <v>189</v>
       </c>
@@ -9413,12 +9413,12 @@
       <c r="A46" s="108">
         <v>24</v>
       </c>
-      <c r="B46" s="330"/>
-      <c r="C46" s="316" t="s">
+      <c r="B46" s="288"/>
+      <c r="C46" s="279" t="s">
         <v>247</v>
       </c>
-      <c r="D46" s="317"/>
-      <c r="E46" s="295"/>
+      <c r="D46" s="280"/>
+      <c r="E46" s="319"/>
       <c r="F46" s="133" t="s">
         <v>189</v>
       </c>
@@ -9443,12 +9443,12 @@
       <c r="A47" s="108">
         <v>25</v>
       </c>
-      <c r="B47" s="330"/>
-      <c r="C47" s="314" t="s">
+      <c r="B47" s="288"/>
+      <c r="C47" s="277" t="s">
         <v>248</v>
       </c>
-      <c r="D47" s="315"/>
-      <c r="E47" s="295"/>
+      <c r="D47" s="278"/>
+      <c r="E47" s="319"/>
       <c r="F47" s="133" t="s">
         <v>189</v>
       </c>
@@ -9473,12 +9473,12 @@
       <c r="A48" s="108">
         <v>26</v>
       </c>
-      <c r="B48" s="330"/>
-      <c r="C48" s="314" t="s">
+      <c r="B48" s="288"/>
+      <c r="C48" s="277" t="s">
         <v>249</v>
       </c>
-      <c r="D48" s="315"/>
-      <c r="E48" s="295"/>
+      <c r="D48" s="278"/>
+      <c r="E48" s="319"/>
       <c r="F48" s="133" t="s">
         <v>189</v>
       </c>
@@ -9503,12 +9503,12 @@
       <c r="A49" s="108">
         <v>27</v>
       </c>
-      <c r="B49" s="330"/>
-      <c r="C49" s="314" t="s">
+      <c r="B49" s="288"/>
+      <c r="C49" s="277" t="s">
         <v>245</v>
       </c>
-      <c r="D49" s="315"/>
-      <c r="E49" s="295"/>
+      <c r="D49" s="278"/>
+      <c r="E49" s="319"/>
       <c r="F49" s="133" t="s">
         <v>189</v>
       </c>
@@ -9533,12 +9533,12 @@
       <c r="A50" s="108">
         <v>28</v>
       </c>
-      <c r="B50" s="330"/>
-      <c r="C50" s="314" t="s">
+      <c r="B50" s="288"/>
+      <c r="C50" s="277" t="s">
         <v>247</v>
       </c>
-      <c r="D50" s="315"/>
-      <c r="E50" s="295"/>
+      <c r="D50" s="278"/>
+      <c r="E50" s="319"/>
       <c r="F50" s="133" t="s">
         <v>189</v>
       </c>
@@ -9563,12 +9563,12 @@
       <c r="A51" s="108">
         <v>29</v>
       </c>
-      <c r="B51" s="330"/>
-      <c r="C51" s="316" t="s">
+      <c r="B51" s="288"/>
+      <c r="C51" s="279" t="s">
         <v>248</v>
       </c>
-      <c r="D51" s="317"/>
-      <c r="E51" s="295"/>
+      <c r="D51" s="280"/>
+      <c r="E51" s="319"/>
       <c r="F51" s="133" t="s">
         <v>189</v>
       </c>
@@ -9593,12 +9593,12 @@
       <c r="A52" s="108">
         <v>30</v>
       </c>
-      <c r="B52" s="330"/>
-      <c r="C52" s="314" t="s">
+      <c r="B52" s="288"/>
+      <c r="C52" s="277" t="s">
         <v>254</v>
       </c>
-      <c r="D52" s="315"/>
-      <c r="E52" s="295"/>
+      <c r="D52" s="278"/>
+      <c r="E52" s="319"/>
       <c r="F52" s="133" t="s">
         <v>189</v>
       </c>
@@ -9623,12 +9623,12 @@
       <c r="A53" s="108">
         <v>31</v>
       </c>
-      <c r="B53" s="330"/>
-      <c r="C53" s="316" t="s">
+      <c r="B53" s="288"/>
+      <c r="C53" s="279" t="s">
         <v>255</v>
       </c>
-      <c r="D53" s="317"/>
-      <c r="E53" s="295"/>
+      <c r="D53" s="280"/>
+      <c r="E53" s="319"/>
       <c r="F53" s="133" t="s">
         <v>189</v>
       </c>
@@ -9653,12 +9653,12 @@
       <c r="A54" s="108">
         <v>32</v>
       </c>
-      <c r="B54" s="330"/>
-      <c r="C54" s="314" t="s">
+      <c r="B54" s="288"/>
+      <c r="C54" s="277" t="s">
         <v>256</v>
       </c>
-      <c r="D54" s="315"/>
-      <c r="E54" s="295"/>
+      <c r="D54" s="278"/>
+      <c r="E54" s="319"/>
       <c r="F54" s="133" t="s">
         <v>189</v>
       </c>
@@ -9683,12 +9683,12 @@
       <c r="A55" s="108">
         <v>33</v>
       </c>
-      <c r="B55" s="330"/>
-      <c r="C55" s="314" t="s">
+      <c r="B55" s="288"/>
+      <c r="C55" s="277" t="s">
         <v>257</v>
       </c>
-      <c r="D55" s="315"/>
-      <c r="E55" s="295"/>
+      <c r="D55" s="278"/>
+      <c r="E55" s="319"/>
       <c r="F55" s="133" t="s">
         <v>189</v>
       </c>
@@ -9713,12 +9713,12 @@
       <c r="A56" s="108">
         <v>34</v>
       </c>
-      <c r="B56" s="330"/>
-      <c r="C56" s="316" t="s">
+      <c r="B56" s="288"/>
+      <c r="C56" s="279" t="s">
         <v>247</v>
       </c>
-      <c r="D56" s="317"/>
-      <c r="E56" s="295"/>
+      <c r="D56" s="280"/>
+      <c r="E56" s="319"/>
       <c r="F56" s="133" t="s">
         <v>189</v>
       </c>
@@ -9743,12 +9743,12 @@
       <c r="A57" s="108">
         <v>35</v>
       </c>
-      <c r="B57" s="330"/>
-      <c r="C57" s="314" t="s">
+      <c r="B57" s="288"/>
+      <c r="C57" s="277" t="s">
         <v>248</v>
       </c>
-      <c r="D57" s="315"/>
-      <c r="E57" s="295"/>
+      <c r="D57" s="278"/>
+      <c r="E57" s="319"/>
       <c r="F57" s="133" t="s">
         <v>189</v>
       </c>
@@ -9773,12 +9773,12 @@
       <c r="A58" s="108">
         <v>36</v>
       </c>
-      <c r="B58" s="330"/>
-      <c r="C58" s="314" t="s">
+      <c r="B58" s="288"/>
+      <c r="C58" s="277" t="s">
         <v>258</v>
       </c>
-      <c r="D58" s="315"/>
-      <c r="E58" s="295"/>
+      <c r="D58" s="278"/>
+      <c r="E58" s="319"/>
       <c r="F58" s="133" t="s">
         <v>189</v>
       </c>
@@ -9803,12 +9803,12 @@
       <c r="A59" s="108">
         <v>37</v>
       </c>
-      <c r="B59" s="330"/>
-      <c r="C59" s="316" t="s">
+      <c r="B59" s="288"/>
+      <c r="C59" s="279" t="s">
         <v>259</v>
       </c>
-      <c r="D59" s="317"/>
-      <c r="E59" s="295"/>
+      <c r="D59" s="280"/>
+      <c r="E59" s="319"/>
       <c r="F59" s="133" t="s">
         <v>189</v>
       </c>
@@ -9833,12 +9833,12 @@
       <c r="A60" s="108">
         <v>38</v>
       </c>
-      <c r="B60" s="330"/>
-      <c r="C60" s="341" t="s">
+      <c r="B60" s="288"/>
+      <c r="C60" s="281" t="s">
         <v>260</v>
       </c>
-      <c r="D60" s="342"/>
-      <c r="E60" s="295"/>
+      <c r="D60" s="282"/>
+      <c r="E60" s="319"/>
       <c r="F60" s="133" t="s">
         <v>189</v>
       </c>
@@ -9863,12 +9863,12 @@
       <c r="A61" s="108">
         <v>39</v>
       </c>
-      <c r="B61" s="330"/>
-      <c r="C61" s="316" t="s">
+      <c r="B61" s="288"/>
+      <c r="C61" s="279" t="s">
         <v>264</v>
       </c>
-      <c r="D61" s="317"/>
-      <c r="E61" s="295"/>
+      <c r="D61" s="280"/>
+      <c r="E61" s="319"/>
       <c r="F61" s="133" t="s">
         <v>189</v>
       </c>
@@ -9893,12 +9893,12 @@
       <c r="A62" s="108">
         <v>40</v>
       </c>
-      <c r="B62" s="330"/>
-      <c r="C62" s="314" t="s">
+      <c r="B62" s="288"/>
+      <c r="C62" s="277" t="s">
         <v>266</v>
       </c>
-      <c r="D62" s="315"/>
-      <c r="E62" s="295"/>
+      <c r="D62" s="278"/>
+      <c r="E62" s="319"/>
       <c r="F62" s="133" t="s">
         <v>189</v>
       </c>
@@ -9923,12 +9923,12 @@
       <c r="A63" s="108">
         <v>41</v>
       </c>
-      <c r="B63" s="330"/>
-      <c r="C63" s="314" t="s">
+      <c r="B63" s="288"/>
+      <c r="C63" s="277" t="s">
         <v>250</v>
       </c>
-      <c r="D63" s="315"/>
-      <c r="E63" s="295"/>
+      <c r="D63" s="278"/>
+      <c r="E63" s="319"/>
       <c r="F63" s="133" t="s">
         <v>189</v>
       </c>
@@ -9953,12 +9953,12 @@
       <c r="A64" s="108">
         <v>42</v>
       </c>
-      <c r="B64" s="330"/>
-      <c r="C64" s="314" t="s">
+      <c r="B64" s="288"/>
+      <c r="C64" s="277" t="s">
         <v>268</v>
       </c>
-      <c r="D64" s="315"/>
-      <c r="E64" s="295"/>
+      <c r="D64" s="278"/>
+      <c r="E64" s="319"/>
       <c r="F64" s="133" t="s">
         <v>189</v>
       </c>
@@ -9983,12 +9983,12 @@
       <c r="A65" s="108">
         <v>43</v>
       </c>
-      <c r="B65" s="330"/>
-      <c r="C65" s="316" t="s">
+      <c r="B65" s="288"/>
+      <c r="C65" s="279" t="s">
         <v>270</v>
       </c>
-      <c r="D65" s="317"/>
-      <c r="E65" s="295"/>
+      <c r="D65" s="280"/>
+      <c r="E65" s="319"/>
       <c r="F65" s="133" t="s">
         <v>189</v>
       </c>
@@ -10013,12 +10013,12 @@
       <c r="A66" s="108">
         <v>44</v>
       </c>
-      <c r="B66" s="330"/>
-      <c r="C66" s="314" t="s">
+      <c r="B66" s="288"/>
+      <c r="C66" s="277" t="s">
         <v>271</v>
       </c>
-      <c r="D66" s="315"/>
-      <c r="E66" s="295"/>
+      <c r="D66" s="278"/>
+      <c r="E66" s="319"/>
       <c r="F66" s="133" t="s">
         <v>189</v>
       </c>
@@ -10045,13 +10045,13 @@
       <c r="A67" s="35">
         <v>1</v>
       </c>
-      <c r="B67" s="308" t="s">
+      <c r="B67" s="309" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="311" t="s">
+      <c r="C67" s="312" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="312"/>
+      <c r="D67" s="313"/>
       <c r="E67" s="42"/>
       <c r="F67" s="42" t="s">
         <v>131</v>
@@ -10101,11 +10101,11 @@
       <c r="A68" s="33">
         <v>2</v>
       </c>
-      <c r="B68" s="309"/>
-      <c r="C68" s="304" t="s">
+      <c r="B68" s="310"/>
+      <c r="C68" s="303" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="305"/>
+      <c r="D68" s="304"/>
       <c r="E68" s="39" t="s">
         <v>158</v>
       </c>
@@ -10135,11 +10135,11 @@
       <c r="A69" s="33">
         <v>3</v>
       </c>
-      <c r="B69" s="309"/>
-      <c r="C69" s="304" t="s">
+      <c r="B69" s="310"/>
+      <c r="C69" s="303" t="s">
         <v>37</v>
       </c>
-      <c r="D69" s="305"/>
+      <c r="D69" s="304"/>
       <c r="E69" s="39"/>
       <c r="F69" s="39" t="s">
         <v>125</v>
@@ -10167,11 +10167,11 @@
       <c r="A70" s="33">
         <v>4</v>
       </c>
-      <c r="B70" s="309"/>
-      <c r="C70" s="304" t="s">
+      <c r="B70" s="310"/>
+      <c r="C70" s="303" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="305"/>
+      <c r="D70" s="304"/>
       <c r="E70" s="39"/>
       <c r="F70" s="39" t="s">
         <v>125</v>
@@ -10199,11 +10199,11 @@
       <c r="A71" s="33">
         <v>5</v>
       </c>
-      <c r="B71" s="309"/>
-      <c r="C71" s="304" t="s">
+      <c r="B71" s="310"/>
+      <c r="C71" s="303" t="s">
         <v>39</v>
       </c>
-      <c r="D71" s="305"/>
+      <c r="D71" s="304"/>
       <c r="E71" s="39"/>
       <c r="F71" s="39" t="s">
         <v>125</v>
@@ -10231,11 +10231,11 @@
       <c r="A72" s="82">
         <v>6</v>
       </c>
-      <c r="B72" s="309"/>
-      <c r="C72" s="334" t="s">
+      <c r="B72" s="310"/>
+      <c r="C72" s="270" t="s">
         <v>347</v>
       </c>
-      <c r="D72" s="335"/>
+      <c r="D72" s="271"/>
       <c r="E72" s="187"/>
       <c r="F72" s="39" t="s">
         <v>125</v>
@@ -10285,11 +10285,11 @@
       <c r="A73" s="34">
         <v>7</v>
       </c>
-      <c r="B73" s="310"/>
-      <c r="C73" s="306" t="s">
+      <c r="B73" s="311"/>
+      <c r="C73" s="305" t="s">
         <v>40</v>
       </c>
-      <c r="D73" s="307"/>
+      <c r="D73" s="306"/>
       <c r="E73" s="40"/>
       <c r="F73" s="40" t="s">
         <v>127</v>
@@ -10319,16 +10319,16 @@
       <c r="A74" s="35">
         <v>1</v>
       </c>
-      <c r="B74" s="302" t="s">
+      <c r="B74" s="301" t="s">
         <v>121</v>
       </c>
-      <c r="C74" s="313" t="s">
+      <c r="C74" s="314" t="s">
         <v>87</v>
       </c>
       <c r="D74" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="E74" s="293" t="s">
+      <c r="E74" s="315" t="s">
         <v>159</v>
       </c>
       <c r="F74" s="146" t="s">
@@ -10356,11 +10356,11 @@
         <v>2</v>
       </c>
       <c r="B75" s="248"/>
-      <c r="C75" s="261"/>
+      <c r="C75" s="252"/>
       <c r="D75" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="E75" s="253"/>
+      <c r="E75" s="265"/>
       <c r="F75" s="145" t="s">
         <v>129</v>
       </c>
@@ -10386,11 +10386,11 @@
         <v>3</v>
       </c>
       <c r="B76" s="248"/>
-      <c r="C76" s="261"/>
+      <c r="C76" s="252"/>
       <c r="D76" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="E76" s="253"/>
+      <c r="E76" s="265"/>
       <c r="F76" s="145" t="s">
         <v>129</v>
       </c>
@@ -10416,11 +10416,11 @@
         <v>4</v>
       </c>
       <c r="B77" s="248"/>
-      <c r="C77" s="261"/>
+      <c r="C77" s="252"/>
       <c r="D77" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="E77" s="253"/>
+      <c r="E77" s="265"/>
       <c r="F77" s="145" t="s">
         <v>129</v>
       </c>
@@ -10446,11 +10446,11 @@
         <v>5</v>
       </c>
       <c r="B78" s="248"/>
-      <c r="C78" s="261"/>
+      <c r="C78" s="252"/>
       <c r="D78" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="E78" s="253"/>
+      <c r="E78" s="265"/>
       <c r="F78" s="145" t="s">
         <v>129</v>
       </c>
@@ -10476,11 +10476,11 @@
         <v>6</v>
       </c>
       <c r="B79" s="248"/>
-      <c r="C79" s="261"/>
+      <c r="C79" s="252"/>
       <c r="D79" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="E79" s="253"/>
+      <c r="E79" s="265"/>
       <c r="F79" s="145" t="s">
         <v>129</v>
       </c>
@@ -10512,7 +10512,7 @@
       <c r="D80" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="E80" s="253"/>
+      <c r="E80" s="265"/>
       <c r="F80" s="145" t="s">
         <v>130</v>
       </c>
@@ -10546,11 +10546,11 @@
         <v>8</v>
       </c>
       <c r="B81" s="248"/>
-      <c r="C81" s="289" t="s">
+      <c r="C81" s="307" t="s">
         <v>98</v>
       </c>
-      <c r="D81" s="290"/>
-      <c r="E81" s="253"/>
+      <c r="D81" s="308"/>
+      <c r="E81" s="265"/>
       <c r="F81" s="145" t="s">
         <v>125</v>
       </c>
@@ -10576,11 +10576,11 @@
         <v>9</v>
       </c>
       <c r="B82" s="248"/>
-      <c r="C82" s="267" t="s">
+      <c r="C82" s="258" t="s">
         <v>101</v>
       </c>
-      <c r="D82" s="269"/>
-      <c r="E82" s="253"/>
+      <c r="D82" s="260"/>
+      <c r="E82" s="265"/>
       <c r="F82" s="138" t="s">
         <v>125</v>
       </c>
@@ -10608,11 +10608,11 @@
         <v>10</v>
       </c>
       <c r="B83" s="248"/>
-      <c r="C83" s="267" t="s">
+      <c r="C83" s="258" t="s">
         <v>103</v>
       </c>
-      <c r="D83" s="269"/>
-      <c r="E83" s="253"/>
+      <c r="D83" s="260"/>
+      <c r="E83" s="265"/>
       <c r="F83" s="138" t="s">
         <v>123</v>
       </c>
@@ -10645,12 +10645,12 @@
       <c r="A84" s="108">
         <v>11</v>
       </c>
-      <c r="B84" s="303"/>
-      <c r="C84" s="300" t="s">
+      <c r="B84" s="302"/>
+      <c r="C84" s="299" t="s">
         <v>112</v>
       </c>
-      <c r="D84" s="301"/>
-      <c r="E84" s="253"/>
+      <c r="D84" s="300"/>
+      <c r="E84" s="265"/>
       <c r="F84" s="141" t="s">
         <v>125</v>
       </c>
@@ -10674,14 +10674,14 @@
       </c>
     </row>
     <row r="85" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A85" s="336" t="s">
+      <c r="A85" s="272" t="s">
         <v>272</v>
       </c>
-      <c r="B85" s="337"/>
-      <c r="C85" s="337"/>
-      <c r="D85" s="337"/>
-      <c r="E85" s="337"/>
-      <c r="F85" s="338"/>
+      <c r="B85" s="273"/>
+      <c r="C85" s="273"/>
+      <c r="D85" s="273"/>
+      <c r="E85" s="273"/>
+      <c r="F85" s="274"/>
       <c r="G85" s="199">
         <f>SUM(G4:G84)</f>
         <v>79000000</v>
@@ -10737,6 +10737,85 @@
     </row>
   </sheetData>
   <mergeCells count="95">
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G2:R2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E74:E84"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E15:E21"/>
+    <mergeCell ref="E23:E66"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="B74:B84"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C74:C79"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B23:B66"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="F23:F25"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="A85:F85"/>
@@ -10753,85 +10832,6 @@
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B23:B66"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="B74:B84"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B67:B73"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C74:C79"/>
-    <mergeCell ref="E74:E84"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E15:E21"/>
-    <mergeCell ref="E23:E66"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G2:R2"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
